--- a/hrp/herc_portfolio_weights.xlsx
+++ b/hrp/herc_portfolio_weights.xlsx
@@ -14,41 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>weights</t>
   </si>
   <si>
+    <t>ARGT</t>
+  </si>
+  <si>
     <t>BTC-USD</t>
   </si>
   <si>
-    <t>CEMB</t>
-  </si>
-  <si>
-    <t>EMB</t>
-  </si>
-  <si>
-    <t>EMLC</t>
-  </si>
-  <si>
-    <t>ETH-USD</t>
-  </si>
-  <si>
-    <t>EWZ</t>
-  </si>
-  <si>
-    <t>FXI</t>
-  </si>
-  <si>
-    <t>GDX</t>
-  </si>
-  <si>
-    <t>GLD</t>
-  </si>
-  <si>
-    <t>IBB</t>
-  </si>
-  <si>
     <t>IEMG</t>
   </si>
   <si>
@@ -58,40 +34,10 @@
     <t>IWM</t>
   </si>
   <si>
-    <t>SLV</t>
-  </si>
-  <si>
-    <t>USO</t>
-  </si>
-  <si>
     <t>VEA</t>
   </si>
   <si>
-    <t>XLB</t>
-  </si>
-  <si>
-    <t>XLC</t>
-  </si>
-  <si>
-    <t>XLI</t>
-  </si>
-  <si>
-    <t>XLK</t>
-  </si>
-  <si>
-    <t>XLP</t>
-  </si>
-  <si>
-    <t>XLRE</t>
-  </si>
-  <si>
-    <t>XLV</t>
-  </si>
-  <si>
-    <t>XLY</t>
-  </si>
-  <si>
-    <t>YPF</t>
+    <t>VFMF</t>
   </si>
 </sst>
 </file>
@@ -449,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,7 +411,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.005350578590241562</v>
+        <v>0.07046057319893285</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -473,7 +419,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.3170791683082054</v>
+        <v>0.04600707938155996</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -481,7 +427,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.03523101870091174</v>
+        <v>0.1773317704651354</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -489,7 +435,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.00729181887316152</v>
+        <v>0.1788224289511949</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -497,7 +443,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.003086630912398532</v>
+        <v>0.1543741275702323</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -505,7 +451,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.009752013567031592</v>
+        <v>0.1937539323017422</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -513,151 +459,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.02485148424808856</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0.01474136807152458</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0.105064748854301</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.03518804997389525</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0.04366684482781187</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>0.01551327011910546</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>0.02576519639955618</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>0.0283093687299965</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>0.01663055072709888</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>0.03593363695791417</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>0.0373074489113043</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>0.03727889011324107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>0.01789519394673703</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>0.0147128970872054</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>0.04514559803818311</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>0.02202812150913746</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>0.07790794160444695</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>0.01779083906199299</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>0.006477321866508958</v>
+        <v>0.1792500881312024</v>
       </c>
     </row>
   </sheetData>

--- a/hrp/herc_portfolio_weights.xlsx
+++ b/hrp/herc_portfolio_weights.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>weights</t>
   </si>
@@ -25,6 +25,12 @@
     <t>BTC-USD</t>
   </si>
   <si>
+    <t>GDX</t>
+  </si>
+  <si>
+    <t>GLD</t>
+  </si>
+  <si>
     <t>IEMG</t>
   </si>
   <si>
@@ -34,10 +40,25 @@
     <t>IWM</t>
   </si>
   <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t>URA</t>
+  </si>
+  <si>
+    <t>USO</t>
+  </si>
+  <si>
     <t>VEA</t>
   </si>
   <si>
-    <t>VFMF</t>
+    <t>Galileo Event driven</t>
+  </si>
+  <si>
+    <t>Tasa pesos</t>
+  </si>
+  <si>
+    <t>Bonares</t>
   </si>
 </sst>
 </file>
@@ -395,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,7 +432,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.07046057319893285</v>
+        <v>0.01080777590182814</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -419,7 +440,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.04600707938155996</v>
+        <v>0.00480828215716857</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -427,7 +448,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.1773317704651354</v>
+        <v>0.007107988639328048</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -435,7 +456,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.1788224289511949</v>
+        <v>0.04334534048303734</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -443,7 +464,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.1543741275702323</v>
+        <v>0.03637064321976887</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -451,7 +472,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.1937539323017422</v>
+        <v>0.01285373065241728</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -459,7 +480,63 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.1792500881312024</v>
+        <v>0.01343837524749179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.01786685999939695</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.005965973528034656</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.01090427749749846</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.02059254244663368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.772989770076785</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.02259064979867563</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0.02035779035193556</v>
       </c>
     </row>
   </sheetData>
